--- a/Profils/DataPDI-50_EnR_sem_hiver.xlsx
+++ b/Profils/DataPDI-50_EnR_sem_hiver.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00e1b8bdc4a14852/G3 ECLille/PDI/Ressources/Fluctuations réseaux/Données Profils de charges/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00e1b8bdc4a14852/G3 ECLille/PDI/Ressources/Fluctuations réseaux/Données Profils de charges/Saison hiver/V7 Données hiver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{DEDE3352-9592-4697-B53D-A0633DF27766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8412982C-0E10-403F-B822-8BD08F5C1F17}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_AD4D9D64A577C15A4A5418F960984C305BDEDD87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02E93629-A844-4A84-9BC7-E131FC6BDDFC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DonnéesPDI-90%EnR-Pic3" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -42,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,135 +53,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,179 +63,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -367,205 +76,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -580,8 +100,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -597,7 +121,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -609,7 +133,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -626,7 +150,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -656,29 +180,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -708,23 +215,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -869,7 +359,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -877,15 +367,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A338"/>
+  <dimension ref="A1:A385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -895,112 +385,112 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>81.247035056446819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>78.851027926322047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>76.594414735591215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>74.226286393345248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>71.876743909685118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>69.248413547237121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>66.833820558526483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>64.503470595171237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>63.390330681500316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>61.841730280604182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>59.937837704118344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>58.380607355310964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>57.500061729679487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>59.034740891404311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>58.45685370528355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>55.343123961057103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>49.044346405228751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>40.666622103386807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>31.463214497920383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>22.058964646464656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>13.776369578134299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>5.8726812240047721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -1070,177 +560,177 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>4.3390017825312013</v>
+        <v>82.534369783412515</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>12.585729352347002</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>26.701733511586447</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42.039451871657761</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>60.401274509803912</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>71.456178451178459</v>
+        <v>75.84560995053539</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>78.366287383640312</v>
+        <v>91.251229313739415</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>81.242407902554987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>81.44493959199842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>79.832434145375345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>77.663054070112906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>75.791047732224214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>74.011970687264835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>72.781176470588235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>69.641734997029118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>66.009768270944761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>63.01901366607251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>59.786642899584116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>57.548615567439143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>54.966749851455774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>52.199025549613829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>49.79372549019611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>46.319738562091537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43.366155674391003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>40.774997029114701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>48.094270647653012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>48.199371657753986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45.926124480095034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42.885032679738536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>37.829367201425995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>32.792899584076004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>26.845680332739096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>18.793269459298802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>10.097557932263729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>2.1732263814615949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -1305,427 +795,427 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>0</v>
+        <v>1.6961817229748342</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>11.266415626856794</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>28.844416221033857</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>48.735231729055251</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>59.889404832640146</v>
+        <v>80.322924650626632</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>67.382052386611207</v>
+        <v>48.183903376074703</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>70.638459595959603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>70.672294018617549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>70.019100812042026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>69.633963161022024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>68.040744701921184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>68.203889879184018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>69.658752228163991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>68.545169340463474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>66.08411170528818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>63.715983363042206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>61.515127748068963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>59.843969102792684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>58.721093285799206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>57.76549019607846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>57.794937611408223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>55.547617349970309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>52.54756981580514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>51.378229352347006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>50.620634284016631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>54.5318256090315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>56.052526737967909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>55.585906120023765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>54.919763814616772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>52.87820855614973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>48.829380570409974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>44.786996434937606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>40.761102198455148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>37.061877599524671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>32.170980392156856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>29.313854723707681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>28.252479203802711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>22.725775401069502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>19.262944147355928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>20.446748366013054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>19.100638740344625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>18.993683897801521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>17.512069221628042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>19.411767676767678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>22.812706476529986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>23.149037433155073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>25.609958407605482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>30.928865121806304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>37.721849376114072</v>
+        <v>35.844015751812655</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>51.015855614973269</v>
+        <v>32.293189982231233</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>63.998161021984565</v>
+        <v>44.151807712625562</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>76.814610814022572</v>
+        <v>65.146539499591995</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>84.837105367399488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>89.484730639730643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>91.774711824123585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>91.800716478510623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>89.599207763913668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>87.346215092097495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>85.046757773816623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>82.552148940384257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>79.750873440285204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>77.81021984551397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>75.246939988116466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>72.330528817587663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>69.2003802733215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>66.135282234105802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>63.153820558526483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>60.321045751634031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>57.228068924539542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>53.438122400475372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>50.14999405822936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>46.155603089720763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>42.030395127748058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>42.092881758764108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>41.590565953654171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>39.752843137254914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>38.010824420677366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>36.110773915626858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>30.910920974450395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>23.32137551990494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>15.420166369578119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>8.2195365418894912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>2.2934997029114572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
@@ -1795,682 +1285,682 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>0</v>
+        <v>15.457648561686909</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>1.7756654783125474</v>
+        <v>85.921630744849352</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>17.026929590017826</v>
+        <v>54.661607261201674</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>31.260163398692807</v>
+        <v>95</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>36.597628243216491</v>
+        <v>46.396258368150853</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>45.836624579124589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>53.468571004159237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>55.941450287185589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>57.473551198257098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>59.69975044563283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>60.727161814220651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>62.107704495939821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>61.638954248366019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>59.168603683897814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>54.876838978015471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>55.677599524658369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>52.092097445038668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>49.510231729055292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>49.530386215092143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>51.511348781937073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>52.339988116458734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>53.335900178253148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>53.16090314913847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>51.359643493761155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>46.561056149732615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>49.247728758169934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>54.083163992869864</v>
+        <v>36.83496729577859</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>56.537409387997627</v>
+        <v>73.606101906545774</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>56.300919489007704</v>
+        <v>95</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>54.060677361853827</v>
+        <v>95</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>50.959041889483068</v>
+        <v>95</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>49.194215686274482</v>
+        <v>95</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>45.644371657754021</v>
+        <v>84.938081976660428</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>42.91164884135469</v>
+        <v>57.113619723382982</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>41.941800356506235</v>
+        <v>35.160612279690653</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>41.146399286987503</v>
+        <v>44.688247298660244</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>40.057182115270322</v>
+        <v>23.53074950775579</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>36.908908199643498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>34.697116755793218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>33.549760843731427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>33.59553921568628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>32.061053178847288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>32.795607546048693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>33.389306298276871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>31.99929292929292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>30.414851455733803</v>
+        <v>50.174234581877784</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>31.202329174093869</v>
+        <v>95</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>34.504677658942363</v>
+        <v>95</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>35.9598440285205</v>
+        <v>95</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>44.303404634581092</v>
+        <v>95</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>51.166518122400497</v>
+        <v>95</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>53.563282828282809</v>
+        <v>95</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>52.452148445236666</v>
+        <v>95</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>47.724476629035451</v>
+        <v>95</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>48.230923945335718</v>
+        <v>95</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>47.757952069716787</v>
+        <v>95</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>43.004460289166182</v>
+        <v>95</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>43.483588829471195</v>
+        <v>95</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>45.551808278867121</v>
+        <v>78.994261729818206</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>47.322653990889322</v>
+        <v>45.793717715987107</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>53.303125371360672</v>
+        <v>38.877126446717703</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>52.561259655377327</v>
+        <v>1.5197767852854669</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>52.339797979798</v>
+        <v>19.92918767054751</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>51.94177064765303</v>
+        <v>32.605174460072853</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>52.770409982174726</v>
+        <v>62.11649359218351</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>53.152988710635817</v>
+        <v>40.236660902687106</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>54.641426024955486</v>
+        <v>59.565259535110783</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>54.271277480689307</v>
+        <v>32.911117360311728</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>53.873250148544358</v>
+        <v>37.639623124758472</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>53.605323826500374</v>
+        <v>62.188700998278755</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>53.244468211527085</v>
+        <v>13.79806052608339</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>53.905834818776057</v>
+        <v>31.431901360195297</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>58.144931669637558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>62.59022875816995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>64.745095068330386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>65.162116755793249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>62.660331253713665</v>
+        <v>66.90790450463389</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>58.657320261437938</v>
+        <v>10.655739326705916</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>53.913709150326859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>46.462171717171778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>40.586956327985831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>35.553869578134375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>33.433854723707753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>34.181501782531164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>30.502785204991088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>27.499618241235861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>26.912008318478893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>21.995855614973252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>20.754153297682688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>20.326847890671427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>17.793590314913832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>16.845866013071898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>20.136648841354706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>22.997742127153856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>26.553679441473538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>32.942005347593572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>35.857290552584651</v>
+        <v>23.670685467992115</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>51.520818478906719</v>
+        <v>95</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>65.675938799762307</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>81.641837492572805</v>
+        <v>95</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>88.548690334719737</v>
+        <v>95</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>91.077000396118038</v>
+        <v>95</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>89.902361853832431</v>
+        <v>95</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>84.54941820162405</v>
+        <v>95</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>76.009641513170891</v>
+        <v>95</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>67.905193107545998</v>
+        <v>95</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>60.553471974648389</v>
+        <v>66.782096143687198</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>54.809427609427573</v>
+        <v>23.12065485280673</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>50.059726678550199</v>
+        <v>33.757982231186723</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>45.32190136660725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>41.150944741532989</v>
+        <v>30.552360141275965</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>36.022816399287024</v>
+        <v>5.3168230557688734</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>30.430041592394563</v>
+        <v>36.668427199719702</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>25.62716577540111</v>
+        <v>32.168553850305145</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>22.329744503862209</v>
+        <v>13.17725594883388</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>19.775757575757638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>15.623386809269238</v>
+        <v>20.297177359441228</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>16.071016042780808</v>
+        <v>12.018239008758355</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>13.424099821746976</v>
+        <v>23.749112721248057</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>12.7379916815212</v>
+        <v>23.109983112433074</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>20.897917409387983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>25.981486928104562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>28.342892156862696</v>
+        <v>46.303229697930036</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>26.909851455733776</v>
+        <v>28.385691615040958</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>26.415285204991047</v>
+        <v>72.381434063295131</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>24.568158051099186</v>
+        <v>22.584143903376059</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>23.135699643493719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>19.231218062982705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>12.310926916220952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>8.5303401663694789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>3.9511957813427285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>8.5162195484254113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>6.1850371360665495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>7.3994578134284037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>5.2383823529411666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>3.9152361853832405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -2515,66 +2005,301 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>0</v>
+        <v>25.11337650674712</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>5.37356209150325</v>
+        <v>95</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>18.088158051099217</v>
+        <v>95</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>32.635638740344611</v>
+        <v>95</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>33.349867795603103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>34.412880273321463</v>
+        <v>95</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>30.558426916221055</v>
+        <v>95</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>23.555759061200273</v>
+        <v>94.813509676799697</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>18.048484848484886</v>
+        <v>48.181502761369735</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>14.504860368389838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>8.6937611408200279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>2.9291265597148701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
         <v>0</v>
       </c>
     </row>
